--- a/Enpoints.xlsx
+++ b/Enpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tharun52/Documents/programming/TrueVote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F9580-B709-764F-AF6E-2A1F85A34569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F3ED8-B075-4149-A8AA-9523760D53DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4CA9DC1D-9916-BD43-BBC0-7E6C07F2A3DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>EndPoints</t>
   </si>
@@ -651,12 +651,15 @@
   <si>
     <t>http://localhost:5100/api/v1/Authentication/me</t>
   </si>
+  <si>
+    <t>Admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -710,12 +713,6 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
@@ -726,22 +723,40 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -753,11 +768,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -787,25 +803,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1139,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15BC3C9-B346-CE41-A800-F1AE3BB07902}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,92 +1196,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1275,7 +1310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1342,200 +1377,212 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="8" t="s">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>64</v>
+    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="8" t="s">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.4">
+      <c r="A27" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.4">
-      <c r="A30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>76</v>
-      </c>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8EB9E115-1E73-BB4F-9ACA-A34D2A40FB47}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{27DE4B77-7EA9-CB40-9E6F-C52477D85C65}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{85E98B85-D494-8E49-A422-338A6031E286}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{30541643-C76C-054E-A8F8-8E2552DA2042}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{E9F42AF9-240A-EF48-B7FD-373713BC9D34}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8EB9E115-1E73-BB4F-9ACA-A34D2A40FB47}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{27DE4B77-7EA9-CB40-9E6F-C52477D85C65}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{85E98B85-D494-8E49-A422-338A6031E286}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{30541643-C76C-054E-A8F8-8E2552DA2042}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{E9F42AF9-240A-EF48-B7FD-373713BC9D34}"/>
     <hyperlink ref="B10" r:id="rId6" xr:uid="{74C59072-4B1E-8F4A-83F0-592BF47FA5BD}"/>
     <hyperlink ref="B11" r:id="rId7" xr:uid="{9E400364-829B-D745-99BA-9A2E4C9E2D46}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{E3463F5C-F6B1-F042-B93B-46FC0C6008D5}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{E3B1CF5C-B15D-4048-93C6-C9D8E306823E}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{23A0C0D9-2573-5A4C-A164-95C002CCAA47}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{2B2D8712-1772-1447-8727-2BF0B38A1205}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{985F30AD-A5E4-CA48-B41F-699A18EDD51F}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{31D99077-968C-A247-93A4-39D558D418EB}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{ACC210E6-3AEE-9747-99FC-81FEAA3A927A}"/>
-    <hyperlink ref="B21" r:id="rId15" xr:uid="{6478E2E3-F544-C840-B2A5-C9A544386756}"/>
-    <hyperlink ref="B22" r:id="rId16" xr:uid="{E8BD963F-8491-524D-984A-953CBCB06EE8}"/>
-    <hyperlink ref="B25" r:id="rId17" xr:uid="{65896A73-7EAA-2D41-B601-5DD6FFDB9097}"/>
-    <hyperlink ref="B26" r:id="rId18" xr:uid="{409D4438-7AF1-A84A-B105-13B20C31F4E0}"/>
-    <hyperlink ref="B27" r:id="rId19" xr:uid="{83548211-4E94-8946-B81F-00DCA5277882}"/>
-    <hyperlink ref="B28" r:id="rId20" xr:uid="{60FA469E-CA82-0144-8965-451A8DFC0E88}"/>
-    <hyperlink ref="B31" r:id="rId21" xr:uid="{AE632245-58DD-5A45-864B-0BB228E56773}"/>
-    <hyperlink ref="B7" r:id="rId22" xr:uid="{52D880CF-D572-4D45-872C-AA4DB58F291C}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{985F30AD-A5E4-CA48-B41F-699A18EDD51F}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{31D99077-968C-A247-93A4-39D558D418EB}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{ACC210E6-3AEE-9747-99FC-81FEAA3A927A}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{6478E2E3-F544-C840-B2A5-C9A544386756}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{E8BD963F-8491-524D-984A-953CBCB06EE8}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{65896A73-7EAA-2D41-B601-5DD6FFDB9097}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{409D4438-7AF1-A84A-B105-13B20C31F4E0}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{83548211-4E94-8946-B81F-00DCA5277882}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{60FA469E-CA82-0144-8965-451A8DFC0E88}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{AE632245-58DD-5A45-864B-0BB228E56773}"/>
+    <hyperlink ref="B8" r:id="rId22" xr:uid="{52D880CF-D572-4D45-872C-AA4DB58F291C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Enpoints.xlsx
+++ b/Enpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tharun52/Documents/programming/TrueVote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F3ED8-B075-4149-A8AA-9523760D53DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC39FB1-BC72-CB41-8908-02D2E0B3E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4CA9DC1D-9916-BD43-BBC0-7E6C07F2A3DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>EndPoints</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Delete Voter(DELETE)</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1386,7 +1389,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>70</v>
       </c>
@@ -1518,7 +1521,7 @@
     </row>
     <row r="26" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>78</v>

--- a/Enpoints.xlsx
+++ b/Enpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tharun52/Documents/programming/TrueVote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC39FB1-BC72-CB41-8908-02D2E0B3E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5BA9F-93E3-074B-81FD-DE6CF6523BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4CA9DC1D-9916-BD43-BBC0-7E6C07F2A3DE}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>http://localhost:5100/api/v1/Moderator/01976365-725d-7c1b-a4f8-1be50e4be1cd</t>
   </si>
   <si>
-    <t>http://localhost:5100/api/v1/Moderator/email/moderatortest%40gmail.com</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
   </si>
   <si>
     <t>Update Moderator(DELETE)</t>
-  </si>
-  <si>
-    <t>http://localhost:5100/api/v1/Moderator/update/moderatortest%40gmail.com</t>
   </si>
   <si>
     <t>{
@@ -412,9 +406,6 @@
     <t>Query Poll(GET)</t>
   </si>
   <si>
-    <t>http://localhost:5100/api/v1/Poll/01975d01-d79a-7e3c-822c-f5f168e9149a</t>
-  </si>
-  <si>
     <t>Get Poll(GET)</t>
   </si>
   <si>
@@ -442,9 +433,6 @@
   </si>
   <si>
     <t>Update Poll(PUT)</t>
-  </si>
-  <si>
-    <t>http://lhttp://localhost:5100/api/v1/Poll/update/0197639d-7454-71c7-9948-f7119ae68a75ocalhost:5100/api/v1/Poll/update/0197639d-7454-71c7-9948-f7119ae68a75</t>
   </si>
   <si>
     <t>{
@@ -573,9 +561,6 @@
     <t>Update Voter(PUT)</t>
   </si>
   <si>
-    <t>http://localhost:5100/api/v1/Voter/update/voter1@gmail.com</t>
-  </si>
-  <si>
     <t>{
   "name": "Test Voter",
   "age": 30,
@@ -656,6 +641,21 @@
   </si>
   <si>
     <t>Delete Voter(DELETE)</t>
+  </si>
+  <si>
+    <t>http://localhost:5100/api/v1/Moderator/update/{moderator_email}</t>
+  </si>
+  <si>
+    <t>http://localhost:5100/api/v1/Moderator/email/{moderator_email}</t>
+  </si>
+  <si>
+    <t>http://localhost:5100/api/v1/Poll/update/{poll_id}</t>
+  </si>
+  <si>
+    <t>http://localhost:5100/api/v1/Voter/update{voter_email}</t>
+  </si>
+  <si>
+    <t>http://localhost:5100/api/v1/Poll/{poll_id}</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15BC3C9-B346-CE41-A800-F1AE3BB07902}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="5" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="6" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="7" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="8" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="10" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>18</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="12" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="13" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -1351,120 +1351,120 @@
     </row>
     <row r="14" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="E17" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1473,69 +1473,69 @@
     </row>
     <row r="23" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1544,19 +1544,19 @@
     </row>
     <row r="28" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
